--- a/data/trans_camb/IP1002-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP1002-Habitat-trans_camb.xlsx
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>Menos de 2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,68</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,13</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-0,18</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-0,43</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-0,96</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,79</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,39</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-0,45</t>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,22; 4,03</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 2,97</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,29; 1,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,06; 2,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,2; 1,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-2,71; 0,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-0,63; 2,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-0,92; 1,71</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-1,64; 0,74</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>176,11%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>118,82%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>1,58%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-9,91%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-23,39%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-52,28%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>57,34%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>28,05%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-32,46%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -796,7 +796,7 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-60,63; 925,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -806,32 +806,32 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-77,04; 276,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-81,26; 230,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-93,48; 138,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-38,32; 311,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-48,8; 221,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-81,9; 114,58</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1054,7 +1054,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>10/50</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,79</t>
+          <t>1,68</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,78</t>
+          <t>1,13</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-1,02</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,21</t>
+          <t>-0,18</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,37</t>
+          <t>-0,43</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-0,07</t>
+          <t>-0,96</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-0,29</t>
+          <t>0,79</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-0,2</t>
+          <t>0,39</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-0,55</t>
+          <t>-0,45</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,04; 0,86</t>
+          <t>-0,22; 4,03</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,98; 1,08</t>
+          <t>-0,5; 2,97</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,86; 0,83</t>
+          <t>-1,29; 1,64</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,27; 1,71</t>
+          <t>-2,06; 2,06</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,2; 2,18</t>
+          <t>-2,2; 1,5</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,66; 1,11</t>
+          <t>-2,71; 0,74</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-1,68; 0,91</t>
+          <t>-0,63; 2,33</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,56; 1,08</t>
+          <t>-0,92; 1,71</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-1,82; 0,63</t>
+          <t>-1,64; 0,74</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-43,54%</t>
+          <t>176,11%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-42,77%</t>
+          <t>118,82%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-56,05%</t>
+          <t>1,58%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>26,15%</t>
+          <t>-9,91%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>46,73%</t>
+          <t>-23,39%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-9,53%</t>
+          <t>-52,28%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-22,49%</t>
+          <t>57,34%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-15,73%</t>
+          <t>28,05%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-41,95%</t>
+          <t>-32,46%</t>
         </is>
       </c>
     </row>
@@ -1228,7 +1228,7 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 285,21</t>
+          <t>-60,63; 925,4</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1238,39 +1238,39 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-77,04; 276,75</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-81,26; 230,81</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-93,48; 138,62</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-81,59; 182,43</t>
+          <t>-38,32; 311,86</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-75,92; 217,74</t>
+          <t>-48,8; 221,92</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-89,06; 144,53</t>
+          <t>-81,9; 114,58</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>mas de 50</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,98</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,63</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,42</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,69</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,49</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,78</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,36</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,09</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,11</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,1; 4,88</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,41; 2,66</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,72; 4,6</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,56; 3,03</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,52; 1,14</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,3; 3,65</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,19; 3,15</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,31; 1,4</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,55; 3,13</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>215,45%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>69,02%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>154,47%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>54,7%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-38,57%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>61,67%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>125,32%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,59%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>102,25%</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-58,16; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -1454,7 +1454,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-77,6; 941,53</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1464,29 +1464,29 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-79,89; —</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,6; 721,5</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-75,8; 354,55</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-50,78; 682,26</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>1,98</t>
+          <t>-0,79</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,63</t>
+          <t>-0,78</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>1,42</t>
+          <t>-1,02</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,69</t>
+          <t>0,21</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-0,49</t>
+          <t>0,37</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,78</t>
+          <t>-0,07</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>1,36</t>
+          <t>-0,29</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,09</t>
+          <t>-0,2</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>1,11</t>
+          <t>-0,55</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-0,1; 4,88</t>
+          <t>-3,04; 0,86</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-1,41; 2,66</t>
+          <t>-2,98; 1,08</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-0,72; 4,6</t>
+          <t>-2,86; 0,83</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-1,56; 3,03</t>
+          <t>-1,27; 1,71</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-2,52; 1,14</t>
+          <t>-1,2; 2,18</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-1,3; 3,65</t>
+          <t>-1,66; 1,11</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-0,19; 3,15</t>
+          <t>-1,68; 0,91</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-1,31; 1,4</t>
+          <t>-1,56; 1,08</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-0,55; 3,13</t>
+          <t>-1,82; 0,63</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>215,45%</t>
+          <t>-43,54%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>69,02%</t>
+          <t>-42,77%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>154,47%</t>
+          <t>-56,05%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>54,7%</t>
+          <t>26,15%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-38,57%</t>
+          <t>46,73%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>61,67%</t>
+          <t>-9,53%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>125,32%</t>
+          <t>-22,49%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>8,59%</t>
+          <t>-15,73%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>102,25%</t>
+          <t>-41,95%</t>
         </is>
       </c>
     </row>
@@ -1655,12 +1655,12 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-58,16; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 285,21</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
@@ -1670,7 +1670,7 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-77,6; 941,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -1680,22 +1680,22 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-79,89; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-23,6; 721,5</t>
+          <t>-81,59; 182,43</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-75,8; 354,55</t>
+          <t>-75,92; 217,74</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-50,78; 682,26</t>
+          <t>-89,06; 144,53</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP1002-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP1002-Habitat-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,13; 6,64</t>
+          <t>0,03; 6,84</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,65; 1,07</t>
+          <t>-2,55; 1,08</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,56; 4,32</t>
+          <t>-1,7; 4,01</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,36; 3,27</t>
+          <t>-3,39; 2,97</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-4,38; 1,04</t>
+          <t>-4,12; 1,18</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-2,91; 3,98</t>
+          <t>-2,77; 4,66</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 3,77</t>
+          <t>-0,94; 3,72</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-2,49; 0,75</t>
+          <t>-2,73; 0,53</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-1,56; 3,15</t>
+          <t>-1,82; 2,77</t>
         </is>
       </c>
     </row>
@@ -1007,7 +1007,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-49,52; —</t>
+          <t>-70,24; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -1022,12 +1022,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 637,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 222,6</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1037,17 +1037,17 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-43,59; 469,78</t>
+          <t>-52,35; 474,53</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-89,65; 220,84</t>
+          <t>-100,0; 112,5</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-71,65; 480,23</t>
+          <t>-82,73; 376,63</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,22; 4,03</t>
+          <t>-0,05; 4,15</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 2,97</t>
+          <t>-0,45; 3,19</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,29; 1,64</t>
+          <t>-1,49; 1,67</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,06; 2,06</t>
+          <t>-2,28; 2,01</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,2; 1,5</t>
+          <t>-2,5; 1,27</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-2,71; 0,74</t>
+          <t>-2,85; 0,83</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,63; 2,33</t>
+          <t>-0,67; 2,28</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-0,92; 1,71</t>
+          <t>-1,01; 1,69</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-1,64; 0,74</t>
+          <t>-1,71; 0,65</t>
         </is>
       </c>
     </row>
@@ -1223,12 +1223,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-40,34; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-60,63; 925,4</t>
+          <t>-56,54; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1238,32 +1238,32 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-77,04; 276,75</t>
+          <t>-79,1; 352,58</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-81,26; 230,81</t>
+          <t>-81,71; 196,01</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-93,48; 138,62</t>
+          <t>-100,0; 240,92</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-38,32; 311,86</t>
+          <t>-40,5; 286,65</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-48,8; 221,92</t>
+          <t>-49,49; 211,41</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-81,9; 114,58</t>
+          <t>-82,4; 112,31</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,1; 4,88</t>
+          <t>-0,37; 4,59</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,41; 2,66</t>
+          <t>-1,49; 2,67</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,72; 4,6</t>
+          <t>-0,64; 4,44</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,56; 3,03</t>
+          <t>-1,6; 2,92</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,52; 1,14</t>
+          <t>-2,62; 1,06</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,3; 3,65</t>
+          <t>-1,33; 3,27</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,19; 3,15</t>
+          <t>-0,29; 3,09</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,31; 1,4</t>
+          <t>-1,23; 1,41</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-0,55; 3,13</t>
+          <t>-0,6; 3,04</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-58,16; —</t>
+          <t>-61,4; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -1449,12 +1449,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-90,06; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-77,6; 941,53</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1464,22 +1464,22 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-79,89; —</t>
+          <t>-84,69; —</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-23,6; 721,5</t>
+          <t>-34,72; 708,47</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-75,8; 354,55</t>
+          <t>-83,12; 316,45</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-50,78; 682,26</t>
+          <t>-41,52; 695,06</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-3,04; 0,86</t>
+          <t>-3,08; 1,0</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-2,98; 1,08</t>
+          <t>-3,18; 0,96</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-2,86; 0,83</t>
+          <t>-3,21; 0,78</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-1,27; 1,71</t>
+          <t>-1,36; 1,66</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-1,2; 2,18</t>
+          <t>-1,21; 2,22</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-1,66; 1,11</t>
+          <t>-1,57; 1,32</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-1,68; 0,91</t>
+          <t>-1,53; 0,84</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-1,56; 1,08</t>
+          <t>-1,61; 0,99</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-1,82; 0,63</t>
+          <t>-1,83; 0,63</t>
         </is>
       </c>
     </row>
@@ -1655,17 +1655,17 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 303,65</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 285,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 179,34</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -1685,17 +1685,17 @@
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-81,59; 182,43</t>
+          <t>-76,14; 183,72</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-75,92; 217,74</t>
+          <t>-80,45; 152,6</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-89,06; 144,53</t>
+          <t>-87,37; 138,71</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>0,04; 2,33</t>
+          <t>0,19; 2,41</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-0,75; 1,17</t>
+          <t>-0,73; 1,19</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-0,85; 1,24</t>
+          <t>-0,83; 1,34</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-0,87; 1,26</t>
+          <t>-0,89; 1,18</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-1,21; 0,67</t>
+          <t>-1,28; 0,59</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 1,06</t>
+          <t>-1,02; 1,06</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-0,06; 1,48</t>
+          <t>-0,07; 1,45</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-0,75; 0,69</t>
+          <t>-0,72; 0,67</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-0,7; 0,8</t>
+          <t>-0,62; 0,82</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,54 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-3,22; 333,44</t>
+          <t>-1,21; 312,36</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-46,01; 153,93</t>
+          <t>-49,26; 173,23</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-53,89; 160,25</t>
+          <t>-56,85; 192,93</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-47,55; 143,43</t>
+          <t>-48,41; 128,4</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-64,08; 89,53</t>
+          <t>-67,46; 66,0</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-58,94; 120,16</t>
+          <t>-56,66; 110,91</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-5,73; 165,65</t>
+          <t>-5,43; 159,85</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-43,99; 71,46</t>
+          <t>-42,63; 81,06</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-43,54; 83,94</t>
+          <t>-40,89; 85,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP1002-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP1002-Habitat-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -838,7 +838,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,03; 6,84</t>
+          <t>0,13; 6,74</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,55; 1,08</t>
+          <t>-2,48; 1,07</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,7; 4,01</t>
+          <t>-1,59; 3,8</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,39; 2,97</t>
+          <t>-3,37; 3,09</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-4,12; 1,18</t>
+          <t>-4,15; 1,33</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-2,77; 4,66</t>
+          <t>-2,85; 4,11</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 3,72</t>
+          <t>-0,67; 3,84</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-2,73; 0,53</t>
+          <t>-2,5; 0,56</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-1,82; 2,77</t>
+          <t>-1,57; 2,97</t>
         </is>
       </c>
     </row>
@@ -1007,7 +1007,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-70,24; —</t>
+          <t>-28,28; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -1027,7 +1027,7 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1037,24 +1037,24 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-52,35; 474,53</t>
+          <t>-35,77; 588,76</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 112,5</t>
+          <t>-90,58; 195,06</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-82,73; 376,63</t>
+          <t>-71,27; 409,75</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,05; 4,15</t>
+          <t>-0,26; 4,15</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,45; 3,19</t>
+          <t>-0,52; 3,02</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,49; 1,67</t>
+          <t>-1,55; 1,64</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,28; 2,01</t>
+          <t>-2,05; 2,02</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,5; 1,27</t>
+          <t>-2,56; 1,34</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-2,85; 0,83</t>
+          <t>-2,88; 0,81</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,67; 2,28</t>
+          <t>-0,65; 2,2</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,01; 1,69</t>
+          <t>-0,91; 1,69</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-1,71; 0,65</t>
+          <t>-1,71; 0,67</t>
         </is>
       </c>
     </row>
@@ -1223,12 +1223,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-40,34; —</t>
+          <t>-37,47; 1219,72</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-56,54; —</t>
+          <t>-54,44; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1238,39 +1238,39 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-79,1; 352,58</t>
+          <t>-76,05; 348,06</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-81,71; 196,01</t>
+          <t>-83,03; 200,77</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 240,92</t>
+          <t>-93,05; 246,92</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-40,5; 286,65</t>
+          <t>-41,27; 287,26</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-49,49; 211,41</t>
+          <t>-53,08; 196,73</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-82,4; 112,31</t>
+          <t>-83,57; 98,77</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,37; 4,59</t>
+          <t>-0,23; 4,55</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,49; 2,67</t>
+          <t>-1,41; 2,66</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,64; 4,44</t>
+          <t>-0,87; 4,82</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,6; 2,92</t>
+          <t>-1,39; 3,05</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,62; 1,06</t>
+          <t>-2,71; 1,06</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,33; 3,27</t>
+          <t>-1,48; 3,15</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 3,09</t>
+          <t>-0,24; 3,02</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,23; 1,41</t>
+          <t>-1,25; 1,36</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-0,6; 3,04</t>
+          <t>-0,44; 3,15</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-61,4; —</t>
+          <t>-58,73; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -1449,12 +1449,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-90,06; —</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1464,22 +1464,22 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-84,69; —</t>
+          <t>-83,56; —</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-34,72; 708,47</t>
+          <t>-30,45; 697,96</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-83,12; 316,45</t>
+          <t>-75,37; 341,93</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-41,52; 695,06</t>
+          <t>-45,53; 636,21</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-3,08; 1,0</t>
+          <t>-3,0; 0,77</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-3,18; 0,96</t>
+          <t>-2,96; 1,01</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-3,21; 0,78</t>
+          <t>-3,26; 0,67</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 1,66</t>
+          <t>-1,31; 1,7</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-1,21; 2,22</t>
+          <t>-1,19; 2,07</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-1,57; 1,32</t>
+          <t>-1,67; 1,37</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-1,53; 0,84</t>
+          <t>-1,7; 0,81</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-1,61; 0,99</t>
+          <t>-1,62; 1,06</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-1,83; 0,63</t>
+          <t>-1,88; 0,61</t>
         </is>
       </c>
     </row>
@@ -1655,17 +1655,17 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 303,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 213,71</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 179,34</t>
+          <t>-100,0; 370,32</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -1685,17 +1685,17 @@
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-76,14; 183,72</t>
+          <t>-80,63; 138,58</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-80,45; 152,6</t>
+          <t>-78,75; 212,03</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-87,37; 138,71</t>
+          <t>-88,99; 175,29</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>0,19; 2,41</t>
+          <t>0,2; 2,44</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 1,19</t>
+          <t>-0,74; 1,13</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-0,83; 1,34</t>
+          <t>-0,8; 1,29</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-0,89; 1,18</t>
+          <t>-0,89; 1,07</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-1,28; 0,59</t>
+          <t>-1,27; 0,54</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-1,02; 1,06</t>
+          <t>-1,2; 0,94</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-0,07; 1,45</t>
+          <t>-0,01; 1,47</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-0,72; 0,67</t>
+          <t>-0,77; 0,55</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-0,62; 0,82</t>
+          <t>-0,68; 0,86</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-1,21; 312,36</t>
+          <t>2,98; 306,97</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-49,26; 173,23</t>
+          <t>-47,28; 154,74</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-56,85; 192,93</t>
+          <t>-52,07; 166,9</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-48,41; 128,4</t>
+          <t>-49,94; 122,5</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-67,46; 66,0</t>
+          <t>-65,09; 63,82</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-56,66; 110,91</t>
+          <t>-58,12; 103,77</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-5,43; 159,85</t>
+          <t>-2,24; 156,47</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-42,63; 81,06</t>
+          <t>-46,08; 58,21</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-40,89; 85,0</t>
+          <t>-42,04; 91,53</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP1002-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP1002-Habitat-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -537,14 +537,14 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,22</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,99</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,3</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,46</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,43</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,83</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,19</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,7</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,57</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,56; 2,74</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,6; 0,89</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,31; 3,72</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,04; 5,66</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,21; 0,88</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,95; 5,29</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,71; 3,24</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,2; 0,44</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,28; 2,78</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-11,69%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-52,17%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,77%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>282,9%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-49,26%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>95,84%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>87,72%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-51,23%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>41,97%</t>
         </is>
       </c>
     </row>
@@ -801,44 +801,44 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
+          <t>-100,0; 795,4</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>-59,91; —</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F7" s="2" t="inlineStr">
+      <c r="H7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,07; 500,69</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 114,78</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-70,7; 525,02</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,95</t>
+          <t>-0,18</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,51</t>
+          <t>-0,43</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,56</t>
+          <t>-1,02</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,26</t>
+          <t>1,68</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-1,18</t>
+          <t>1,13</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,14</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>1,43</t>
+          <t>0,79</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-0,83</t>
+          <t>0,39</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,36</t>
+          <t>-0,46</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,13; 6,74</t>
+          <t>-2,06; 2,06</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,48; 1,07</t>
+          <t>-2,2; 1,5</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,59; 3,8</t>
+          <t>-2,78; 0,51</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,37; 3,09</t>
+          <t>-0,22; 4,03</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-4,15; 1,33</t>
+          <t>-0,5; 2,97</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-2,85; 4,11</t>
+          <t>-1,28; 1,7</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,67; 3,84</t>
+          <t>-0,63; 2,33</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-2,5; 0,56</t>
+          <t>-0,92; 1,71</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-1,57; 2,97</t>
+          <t>-1,67; 0,7</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>282,92%</t>
+          <t>-9,91%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-48,87%</t>
+          <t>-23,39%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>53,61%</t>
+          <t>-55,92%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-11,67%</t>
+          <t>176,11%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-51,9%</t>
+          <t>118,82%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>6,23%</t>
+          <t>3,95%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>87,75%</t>
+          <t>57,34%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-50,9%</t>
+          <t>28,05%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>22,2%</t>
+          <t>-33,54%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-28,28; —</t>
+          <t>-77,04; 276,75</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
+          <t>-81,26; 230,81</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>-93,59; 110,87</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E11" s="2" t="inlineStr">
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>-60,63; 925,4</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-35,77; 588,76</t>
+          <t>-38,32; 311,86</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-90,58; 195,06</t>
+          <t>-48,8; 221,92</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-71,27; 409,75</t>
+          <t>-82,53; 112,76</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1,68</t>
+          <t>0,69</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>1,13</t>
+          <t>-0,49</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,54</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-0,18</t>
+          <t>1,98</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-0,43</t>
+          <t>0,63</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-0,96</t>
+          <t>1,41</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,79</t>
+          <t>1,36</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,39</t>
+          <t>0,09</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-0,45</t>
+          <t>0,98</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,26; 4,15</t>
+          <t>-1,56; 3,03</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,52; 3,02</t>
+          <t>-2,52; 1,14</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,55; 1,64</t>
+          <t>-1,63; 3,26</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,05; 2,02</t>
+          <t>-0,1; 4,88</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,56; 1,34</t>
+          <t>-1,41; 2,66</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-2,88; 0,81</t>
+          <t>-0,76; 4,55</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,65; 2,2</t>
+          <t>-0,19; 3,15</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-0,91; 1,69</t>
+          <t>-1,31; 1,4</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-1,71; 0,67</t>
+          <t>-0,65; 2,88</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>176,11%</t>
+          <t>54,7%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>118,82%</t>
+          <t>-38,57%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>1,58%</t>
+          <t>42,64%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-9,91%</t>
+          <t>215,45%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-23,39%</t>
+          <t>69,02%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-52,28%</t>
+          <t>153,08%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>57,34%</t>
+          <t>125,32%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>28,05%</t>
+          <t>8,59%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-32,46%</t>
+          <t>90,08%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-37,47; 1219,72</t>
+          <t>-77,6; 941,53</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-54,44; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
+          <t>-82,39; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>-58,16; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-76,05; 348,06</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-83,03; 200,77</t>
-        </is>
-      </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-93,05; 246,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-41,27; 287,26</t>
+          <t>-23,6; 721,5</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-53,08; 196,73</t>
+          <t>-75,8; 354,55</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-83,57; 98,77</t>
+          <t>-55,96; 640,14</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>1,98</t>
+          <t>0,21</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,63</t>
+          <t>0,37</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1,42</t>
+          <t>-0,09</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,69</t>
+          <t>-0,79</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-0,49</t>
+          <t>-0,78</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,78</t>
+          <t>-1,03</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>1,36</t>
+          <t>-0,29</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,09</t>
+          <t>-0,2</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>1,11</t>
+          <t>-0,55</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,23; 4,55</t>
+          <t>-1,27; 1,71</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,41; 2,66</t>
+          <t>-1,2; 2,18</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,87; 4,82</t>
+          <t>-1,69; 1,06</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,39; 3,05</t>
+          <t>-3,04; 0,86</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,71; 1,06</t>
+          <t>-2,98; 1,08</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,48; 3,15</t>
+          <t>-2,86; 0,82</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,24; 3,02</t>
+          <t>-1,68; 0,91</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,25; 1,36</t>
+          <t>-1,56; 1,08</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 3,15</t>
+          <t>-1,83; 0,61</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>215,45%</t>
+          <t>26,15%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>69,02%</t>
+          <t>46,73%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>154,47%</t>
+          <t>-11,26%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>54,7%</t>
+          <t>-43,54%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-38,57%</t>
+          <t>-42,77%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>61,67%</t>
+          <t>-56,28%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>125,32%</t>
+          <t>-22,49%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>8,59%</t>
+          <t>-15,73%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>102,25%</t>
+          <t>-42,52%</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-58,73; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -1449,7 +1449,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1459,34 +1459,34 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
+          <t>-100,0; 285,21</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>-83,56; —</t>
-        </is>
-      </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-30,45; 697,96</t>
+          <t>-81,59; 182,43</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-75,37; 341,93</t>
+          <t>-75,92; 217,74</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-45,53; 636,21</t>
+          <t>-88,95; 148,53</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-0,79</t>
+          <t>0,12</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-0,78</t>
+          <t>-0,31</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-1,02</t>
+          <t>-0,1</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,21</t>
+          <t>1,21</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,37</t>
+          <t>0,17</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-0,07</t>
+          <t>0,22</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>-0,29</t>
+          <t>0,68</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>-0,2</t>
+          <t>-0,06</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-0,55</t>
+          <t>0,07</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-3,0; 0,77</t>
+          <t>-0,87; 1,26</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-2,96; 1,01</t>
+          <t>-1,21; 0,67</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-3,26; 0,67</t>
+          <t>-1,09; 1,05</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-1,31; 1,7</t>
+          <t>0,04; 2,33</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-1,19; 2,07</t>
+          <t>-0,75; 1,17</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-1,67; 1,37</t>
+          <t>-0,81; 1,4</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-1,7; 0,81</t>
+          <t>-0,06; 1,48</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-1,62; 1,06</t>
+          <t>-0,75; 0,69</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-1,88; 0,61</t>
+          <t>-0,69; 0,83</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-43,54%</t>
+          <t>8,33%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-42,77%</t>
+          <t>-22,18%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-56,05%</t>
+          <t>-7,11%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>26,15%</t>
+          <t>102,78%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>46,73%</t>
+          <t>14,75%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-9,53%</t>
+          <t>18,76%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>-22,49%</t>
+          <t>52,74%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>-15,73%</t>
+          <t>-4,82%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-41,95%</t>
+          <t>5,2%</t>
         </is>
       </c>
     </row>
@@ -1655,275 +1655,59 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-47,55; 143,43</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 213,71</t>
+          <t>-64,08; 89,53</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 370,32</t>
+          <t>-59,44; 121,12</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,22; 333,44</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-46,01; 153,93</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-52,63; 175,68</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-80,63; 138,58</t>
+          <t>-5,73; 165,65</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-78,75; 212,03</t>
+          <t>-43,99; 71,46</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-88,99; 175,29</t>
+          <t>-42,61; 86,84</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>1,21</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>0,17</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>0,16</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>0,12</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>-0,31</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>-0,05</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>0,68</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>-0,06</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>0,06</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>0,2; 2,44</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>-0,74; 1,13</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>-0,8; 1,29</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>-0,89; 1,07</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>-1,27; 0,54</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>-1,2; 0,94</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>-0,01; 1,47</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>-0,77; 0,55</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>-0,68; 0,86</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>102,78%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>14,75%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>13,48%</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>8,33%</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>-22,18%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>-3,86%</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>52,74%</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>-4,82%</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>4,29%</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>2,98; 306,97</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>-47,28; 154,74</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>-52,07; 166,9</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>-49,94; 122,5</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>-65,09; 63,82</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>-58,12; 103,77</t>
-        </is>
-      </c>
-      <c r="I27" s="2" t="inlineStr">
-        <is>
-          <t>-2,24; 156,47</t>
-        </is>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>-46,08; 58,21</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="inlineStr">
-        <is>
-          <t>-42,04; 91,53</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
@@ -1932,7 +1716,6 @@
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
